--- a/Data/Arabidopsis NLRs.xlsx
+++ b/Data/Arabidopsis NLRs.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jexy2\OneDrive\Documents\PhD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/42a5ee813758fc42/Documents/PhD/PhD.git/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26DE7592-D2EB-42C3-B535-88D3D0E41D14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
@@ -2864,8 +2864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{191DFE7A-968B-4121-ADF6-CD647A0755EC}">
   <dimension ref="A1:K175"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="78" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52"/>
+    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="78" workbookViewId="0">
+      <selection activeCell="A92" sqref="A92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12561,15 +12561,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100AAE124C5A4D68743B28650FDE78EA4DD" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c2292b4748cb80aab9ce8557334a3a9a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="6db678f3-3207-45a7-bb76-4f6b54a03069" xmlns:ns4="f8cc16dc-7588-4949-9133-852c9419a450" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="532fccbb9916789b95418be1abc4b624" ns3:_="" ns4:_="">
     <xsd:import namespace="6db678f3-3207-45a7-bb76-4f6b54a03069"/>
@@ -12740,6 +12731,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8A9401F-48F2-48A8-9905-53282ECD946A}">
   <ds:schemaRefs>
@@ -12758,14 +12758,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A24C43BF-D402-4F87-99F4-C9E3E4401A98}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E07B35C2-85CE-44CD-8828-D423D51F09D8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12784,6 +12776,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A24C43BF-D402-4F87-99F4-C9E3E4401A98}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{377e3d22-4ea1-422d-b0ad-8fcc89406b9e}" enabled="0" method="" siteId="{377e3d22-4ea1-422d-b0ad-8fcc89406b9e}" removed="1"/>

--- a/Data/Arabidopsis NLRs.xlsx
+++ b/Data/Arabidopsis NLRs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/42a5ee813758fc42/Documents/PhD/PhD.git/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26DE7592-D2EB-42C3-B535-88D3D0E41D14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="109" documentId="13_ncr:1_{26DE7592-D2EB-42C3-B535-88D3D0E41D14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FF2749D4-ED06-4CFA-B41D-2EB9045FFA90}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C4807C64-294B-40AB-88C6-14C535B56F75}"/>
+    <workbookView xWindow="16140" yWindow="1035" windowWidth="21600" windowHeight="11295" xr2:uid="{C4807C64-294B-40AB-88C6-14C535B56F75}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1288" uniqueCount="753">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1464" uniqueCount="757">
   <si>
     <t xml:space="preserve">Gene </t>
   </si>
@@ -742,12 +742,6 @@
     <t>AT5G47280</t>
   </si>
   <si>
-    <t>Minor cluster cAT5G47251</t>
-  </si>
-  <si>
-    <t>Minor cluster cAT5G47252 - ADR1-like 3</t>
-  </si>
-  <si>
     <t>AT5G48620</t>
   </si>
   <si>
@@ -764,12 +758,6 @@
   </si>
   <si>
     <t>Minor cluster cAT5G48770</t>
-  </si>
-  <si>
-    <t>Minor cluster cAT5G48771</t>
-  </si>
-  <si>
-    <t>Minor cluster cAT5G48772 - TN20</t>
   </si>
   <si>
     <t>R</t>
@@ -2351,6 +2339,30 @@
   </si>
   <si>
     <t>Minor cluster cAT4G09360 - TN15, co-expressed with AT5G44910 which is a TIR protein</t>
+  </si>
+  <si>
+    <t>Clustering</t>
+  </si>
+  <si>
+    <t>single</t>
+  </si>
+  <si>
+    <t>cluster</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>Minor cluster cAT5G47250</t>
+  </si>
+  <si>
+    <t>Minor cluster cAT5G47250 - ADR1-like 3</t>
+  </si>
+  <si>
+    <t>Minor cluster cAT5G48770 - TN20</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -2862,10 +2874,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{191DFE7A-968B-4121-ADF6-CD647A0755EC}">
-  <dimension ref="A1:K175"/>
+  <dimension ref="A1:Q175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="78" workbookViewId="0">
-      <selection activeCell="A92" sqref="A92"/>
+    <sheetView tabSelected="1" topLeftCell="A135" zoomScale="81" workbookViewId="0">
+      <selection activeCell="A174" sqref="A174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2879,10 +2891,11 @@
     <col min="8" max="8" width="13.28515625" customWidth="1"/>
     <col min="9" max="9" width="13.85546875" style="8" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" customWidth="1"/>
+    <col min="12" max="12" width="26.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2890,34 +2903,37 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>67</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -2939,16 +2955,19 @@
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
       <c r="I2" s="8" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K2" t="s">
+        <v>750</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -2972,11 +2991,14 @@
       <c r="J3" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" t="s">
+        <v>751</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -3002,16 +3024,19 @@
         <v>4147961</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="J4" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="K4" s="1" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K4" t="s">
+        <v>751</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -3033,16 +3058,19 @@
         <v>4174874</v>
       </c>
       <c r="I5" s="16" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="J5" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="K5" t="s">
+        <v>751</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -3064,16 +3092,19 @@
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
       <c r="I6" s="8" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="J6" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="K6" s="1" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K6" t="s">
+        <v>751</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -3099,16 +3130,19 @@
         <v>5464272</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="J7" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="K7" s="1" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K7" t="s">
+        <v>750</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -3130,16 +3164,19 @@
         <v>6052935</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="J8" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="K8" t="s">
+        <v>751</v>
+      </c>
+      <c r="L8" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -3163,11 +3200,14 @@
       <c r="J9" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="K9" t="s">
+        <v>751</v>
+      </c>
+      <c r="L9" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -3195,11 +3235,14 @@
       <c r="J10" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="K10" t="s">
+        <v>751</v>
+      </c>
+      <c r="L10" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
@@ -3225,16 +3268,19 @@
         <v>9439652</v>
       </c>
       <c r="I11" s="16" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="J11" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="K11" s="1" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K11" t="s">
+        <v>752</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
@@ -3260,16 +3306,19 @@
         <v>9446596</v>
       </c>
       <c r="I12" s="16" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="J12" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="K12" t="s">
+        <v>752</v>
+      </c>
+      <c r="L12" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
@@ -3295,13 +3344,16 @@
         <v>9446596</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="J13" s="4" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K13" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
@@ -3327,13 +3379,16 @@
         <v>12173001</v>
       </c>
       <c r="I14" s="15" t="s">
-        <v>594</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+        <v>590</v>
+      </c>
+      <c r="K14" t="s">
+        <v>750</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>19</v>
       </c>
@@ -3359,16 +3414,19 @@
         <v>18588228</v>
       </c>
       <c r="I15" s="16" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="J15" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="K15" s="1" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K15" t="s">
+        <v>750</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
@@ -3396,11 +3454,14 @@
       <c r="J16" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="K16" s="1" t="s">
+      <c r="K16" t="s">
+        <v>750</v>
+      </c>
+      <c r="L16" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>22</v>
       </c>
@@ -3424,8 +3485,11 @@
       <c r="J17" s="4" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K17" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
@@ -3447,13 +3511,16 @@
         <v>19907178</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="J18" s="4" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K18" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>25</v>
       </c>
@@ -3479,16 +3546,19 @@
         <v>21174608</v>
       </c>
       <c r="I19" s="16" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="J19" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="K19" s="1" t="s">
+      <c r="K19" t="s">
+        <v>751</v>
+      </c>
+      <c r="L19" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>26</v>
       </c>
@@ -3514,16 +3584,19 @@
         <v>21174608</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="J20" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="K20" s="1" t="s">
+      <c r="K20" t="s">
+        <v>751</v>
+      </c>
+      <c r="L20" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>27</v>
       </c>
@@ -3549,16 +3622,19 @@
         <v>21185591</v>
       </c>
       <c r="I21" s="16" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="J21" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="K21" s="1" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K21" t="s">
+        <v>751</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>30</v>
       </c>
@@ -3586,8 +3662,11 @@
       <c r="J22" s="4" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K22" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>31</v>
       </c>
@@ -3615,11 +3694,14 @@
       <c r="J23" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="K23" s="1" t="s">
+      <c r="K23" t="s">
+        <v>751</v>
+      </c>
+      <c r="L23" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>32</v>
       </c>
@@ -3645,16 +3727,19 @@
         <v>21695698</v>
       </c>
       <c r="I24" s="16" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="J24" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="K24" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K24" t="s">
+        <v>751</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>33</v>
       </c>
@@ -3680,16 +3765,19 @@
         <v>21701184</v>
       </c>
       <c r="I25" s="16" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="J25" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="K25" s="1" t="s">
+      <c r="K25" t="s">
+        <v>751</v>
+      </c>
+      <c r="L25" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>34</v>
       </c>
@@ -3715,16 +3803,19 @@
         <v>21766846</v>
       </c>
       <c r="I26" s="16" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="J26" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="K26" s="1" t="s">
+      <c r="K26" t="s">
+        <v>751</v>
+      </c>
+      <c r="L26" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>35</v>
       </c>
@@ -3752,11 +3843,14 @@
       <c r="J27" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="K27" s="1" t="s">
+      <c r="K27" t="s">
+        <v>751</v>
+      </c>
+      <c r="L27" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>36</v>
       </c>
@@ -3784,11 +3878,14 @@
       <c r="J28" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="K28" s="1" t="s">
+      <c r="K28" t="s">
+        <v>751</v>
+      </c>
+      <c r="L28" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>37</v>
       </c>
@@ -3816,11 +3913,14 @@
       <c r="J29" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="K29" s="1" t="s">
+      <c r="K29" t="s">
+        <v>751</v>
+      </c>
+      <c r="L29" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>38</v>
       </c>
@@ -3848,11 +3948,14 @@
       <c r="J30" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="K30" s="1" t="s">
+      <c r="K30" t="s">
+        <v>751</v>
+      </c>
+      <c r="L30" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>41</v>
       </c>
@@ -3878,16 +3981,19 @@
         <v>21907176</v>
       </c>
       <c r="I31" s="8" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="J31" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="K31" s="1" t="s">
+      <c r="K31" t="s">
+        <v>750</v>
+      </c>
+      <c r="L31" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>43</v>
       </c>
@@ -3915,8 +4021,11 @@
       <c r="J32" s="4" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K32" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>44</v>
       </c>
@@ -3942,16 +4051,19 @@
         <v>22555688</v>
       </c>
       <c r="I33" s="8" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="J33" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="K33" s="1" t="s">
+      <c r="K33" t="s">
+        <v>751</v>
+      </c>
+      <c r="L33" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>45</v>
       </c>
@@ -3977,16 +4089,19 @@
         <v>22562810</v>
       </c>
       <c r="I34" s="8" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="J34" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="K34" s="1" t="s">
+      <c r="K34" t="s">
+        <v>751</v>
+      </c>
+      <c r="L34" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>46</v>
       </c>
@@ -4012,16 +4127,19 @@
         <v>22607461</v>
       </c>
       <c r="I35" s="8" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="J35" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="K35" s="1" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K35" t="s">
+        <v>751</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>47</v>
       </c>
@@ -4047,16 +4165,19 @@
         <v>22612997</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="J36" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="K36" s="1" t="s">
+      <c r="K36" t="s">
+        <v>751</v>
+      </c>
+      <c r="L36" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>51</v>
       </c>
@@ -4082,13 +4203,16 @@
         <v>23192145</v>
       </c>
       <c r="I37" s="8" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="J37" s="4" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K37" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>52</v>
       </c>
@@ -4110,16 +4234,19 @@
         <v>23494642</v>
       </c>
       <c r="I38" s="8" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="J38" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="K38" s="1" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K38" t="s">
+        <v>752</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>53</v>
       </c>
@@ -4145,16 +4272,19 @@
         <v>23498483</v>
       </c>
       <c r="I39" s="8" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="J39" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="K39" s="1" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K39" t="s">
+        <v>752</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>55</v>
       </c>
@@ -4180,16 +4310,19 @@
         <v>23645205</v>
       </c>
       <c r="I40" s="8" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="J40" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="K40" s="1" t="s">
+      <c r="K40" t="s">
+        <v>751</v>
+      </c>
+      <c r="L40" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>56</v>
       </c>
@@ -4215,16 +4348,19 @@
         <v>23649560</v>
       </c>
       <c r="I41" s="8" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="J41" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="K41" s="1" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K41" t="s">
+        <v>751</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>57</v>
       </c>
@@ -4250,16 +4386,19 @@
         <v>23655586</v>
       </c>
       <c r="I42" s="8" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="J42" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="K42" s="1" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K42" t="s">
+        <v>751</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>58</v>
       </c>
@@ -4285,16 +4424,19 @@
         <v>23701407</v>
       </c>
       <c r="I43" s="16" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="J43" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="K43" s="1" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K43" t="s">
+        <v>751</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>59</v>
       </c>
@@ -4322,11 +4464,14 @@
       <c r="J44" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="K44" s="1" t="s">
+      <c r="K44" t="s">
+        <v>751</v>
+      </c>
+      <c r="L44" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>60</v>
       </c>
@@ -4352,16 +4497,19 @@
         <v>23712215</v>
       </c>
       <c r="I45" s="8" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="J45" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="K45" s="1" t="s">
+      <c r="K45" t="s">
+        <v>751</v>
+      </c>
+      <c r="L45" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>61</v>
       </c>
@@ -4389,11 +4537,14 @@
       <c r="J46" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="K46" s="1" t="s">
+      <c r="K46" t="s">
+        <v>751</v>
+      </c>
+      <c r="L46" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>64</v>
       </c>
@@ -4421,8 +4572,11 @@
       <c r="J47" s="4" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K47" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>65</v>
       </c>
@@ -4448,16 +4602,19 @@
         <v>24605426</v>
       </c>
       <c r="I48" s="8" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="J48" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="K48" s="1" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K48" t="s">
+        <v>750</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>66</v>
       </c>
@@ -4483,16 +4640,19 @@
         <v>26148020</v>
       </c>
       <c r="I49" s="8" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="J49" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="K49" s="1" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K49" t="s">
+        <v>750</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>70</v>
       </c>
@@ -4518,16 +4678,19 @@
         <v>27409195</v>
       </c>
       <c r="I50" s="8" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="J50" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="K50" s="1" t="s">
+      <c r="K50" t="s">
+        <v>751</v>
+      </c>
+      <c r="L50" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>71</v>
       </c>
@@ -4551,11 +4714,14 @@
       <c r="J51" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="K51" s="1" t="s">
+      <c r="K51" t="s">
+        <v>751</v>
+      </c>
+      <c r="L51" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>72</v>
       </c>
@@ -4576,11 +4742,14 @@
       </c>
       <c r="G52" s="12"/>
       <c r="H52" s="12"/>
-      <c r="K52" s="1" t="s">
+      <c r="K52" t="s">
+        <v>751</v>
+      </c>
+      <c r="L52" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>73</v>
       </c>
@@ -4600,11 +4769,14 @@
       <c r="J53" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="K53" s="1" t="s">
+      <c r="K53" t="s">
+        <v>751</v>
+      </c>
+      <c r="L53" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>74</v>
       </c>
@@ -4628,11 +4800,14 @@
       <c r="J54" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="K54" s="1" t="s">
+      <c r="K54" t="s">
+        <v>751</v>
+      </c>
+      <c r="L54" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>75</v>
       </c>
@@ -4663,11 +4838,14 @@
       <c r="J55" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="K55" s="1" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K55" t="s">
+        <v>751</v>
+      </c>
+      <c r="L55" s="1" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>76</v>
       </c>
@@ -4693,16 +4871,19 @@
         <v>27435305</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="J56" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="K56" s="1" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K56" t="s">
+        <v>751</v>
+      </c>
+      <c r="L56" s="1" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>77</v>
       </c>
@@ -4728,16 +4909,19 @@
         <v>27437637</v>
       </c>
       <c r="I57" s="8" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="J57" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="K57" s="1" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K57" t="s">
+        <v>751</v>
+      </c>
+      <c r="L57" s="1" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>78</v>
       </c>
@@ -4763,16 +4947,19 @@
         <v>27439239</v>
       </c>
       <c r="I58" s="8" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="J58" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="K58" s="1" t="s">
+      <c r="K58" t="s">
+        <v>751</v>
+      </c>
+      <c r="L58" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>79</v>
       </c>
@@ -4798,16 +4985,19 @@
         <v>27440982</v>
       </c>
       <c r="I59" s="8" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="J59" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="K59" s="1" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K59" t="s">
+        <v>751</v>
+      </c>
+      <c r="L59" s="1" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>80</v>
       </c>
@@ -4833,16 +5023,19 @@
         <v>27443938</v>
       </c>
       <c r="I60" s="8" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="J60" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="K60" s="1" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K60" t="s">
+        <v>751</v>
+      </c>
+      <c r="L60" s="1" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>81</v>
       </c>
@@ -4866,11 +5059,14 @@
       <c r="J61" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="K61" s="1" t="s">
+      <c r="K61" t="s">
+        <v>751</v>
+      </c>
+      <c r="L61" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>89</v>
       </c>
@@ -4892,16 +5088,19 @@
       <c r="G62" s="12"/>
       <c r="H62" s="12"/>
       <c r="I62" s="8" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="J62" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="K62" s="1" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K62" t="s">
+        <v>750</v>
+      </c>
+      <c r="L62" s="1" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>90</v>
       </c>
@@ -4927,16 +5126,19 @@
         <v>7307969</v>
       </c>
       <c r="I63" s="8" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="J63" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="K63" s="1" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K63" t="s">
+        <v>750</v>
+      </c>
+      <c r="L63" s="1" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>91</v>
       </c>
@@ -4964,11 +5166,14 @@
       <c r="J64" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="K64" s="1" t="s">
+      <c r="K64" t="s">
+        <v>752</v>
+      </c>
+      <c r="L64" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>92</v>
       </c>
@@ -4996,11 +5201,14 @@
       <c r="J65" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="K65" s="1" t="s">
+      <c r="K65" t="s">
+        <v>752</v>
+      </c>
+      <c r="L65" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>93</v>
       </c>
@@ -5026,16 +5234,19 @@
         <v>1105649</v>
       </c>
       <c r="I66" s="8" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="J66" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="K66" s="1" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K66" t="s">
+        <v>752</v>
+      </c>
+      <c r="L66" s="1" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>94</v>
       </c>
@@ -5066,11 +5277,14 @@
       <c r="J67" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="K67" s="1" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K67" t="s">
+        <v>752</v>
+      </c>
+      <c r="L67" s="1" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>96</v>
       </c>
@@ -5092,13 +5306,16 @@
         <v>2225854</v>
       </c>
       <c r="I68" s="8" t="s">
-        <v>638</v>
-      </c>
-      <c r="K68" s="1" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+        <v>634</v>
+      </c>
+      <c r="K68" t="s">
+        <v>750</v>
+      </c>
+      <c r="L68" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>97</v>
       </c>
@@ -5124,13 +5341,16 @@
         <v>4851989</v>
       </c>
       <c r="I69" s="16" t="s">
-        <v>677</v>
-      </c>
-      <c r="K69" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="K69" t="s">
+        <v>752</v>
+      </c>
+      <c r="L69" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>98</v>
       </c>
@@ -5156,16 +5376,19 @@
         <v>5320643</v>
       </c>
       <c r="I70" s="8" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="J70" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="K70" s="1" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K70" t="s">
+        <v>752</v>
+      </c>
+      <c r="L70" s="1" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>100</v>
       </c>
@@ -5193,8 +5416,11 @@
       <c r="J71" s="4" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K71" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>101</v>
       </c>
@@ -5220,16 +5446,19 @@
         <v>9263794</v>
       </c>
       <c r="I72" s="16" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="J72" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="K72" s="1" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K72" t="s">
+        <v>750</v>
+      </c>
+      <c r="L72" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>102</v>
       </c>
@@ -5255,16 +5484,19 @@
         <v>16044661</v>
       </c>
       <c r="I73" s="8" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="J73" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="K73" s="1" t="s">
+      <c r="K73" t="s">
+        <v>751</v>
+      </c>
+      <c r="L73" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>103</v>
       </c>
@@ -5286,16 +5518,19 @@
         <v>16090459</v>
       </c>
       <c r="I74" s="8" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="J74" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="K74" s="1" t="s">
+      <c r="K74" t="s">
+        <v>751</v>
+      </c>
+      <c r="L74" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>104</v>
       </c>
@@ -5321,16 +5556,19 @@
         <v>16207539</v>
       </c>
       <c r="I75" s="8" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="J75" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="K75" s="1" t="s">
+      <c r="K75" t="s">
+        <v>751</v>
+      </c>
+      <c r="L75" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>105</v>
       </c>
@@ -5352,16 +5590,19 @@
         <v>16226518</v>
       </c>
       <c r="I76" s="8" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="J76" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="K76" s="1" t="s">
+      <c r="K76" t="s">
+        <v>751</v>
+      </c>
+      <c r="L76" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>109</v>
       </c>
@@ -5383,16 +5624,19 @@
       <c r="G77" s="12"/>
       <c r="H77" s="12"/>
       <c r="I77" s="8" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="J77" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="K77" s="1" t="s">
+      <c r="K77" t="s">
+        <v>751</v>
+      </c>
+      <c r="L77" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>110</v>
       </c>
@@ -5420,11 +5664,14 @@
       <c r="J78" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="K78" s="1" t="s">
+      <c r="K78" t="s">
+        <v>751</v>
+      </c>
+      <c r="L78" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>111</v>
       </c>
@@ -5448,11 +5695,14 @@
       <c r="J79" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="K79" s="1" t="s">
+      <c r="K79" t="s">
+        <v>751</v>
+      </c>
+      <c r="L79" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>115</v>
       </c>
@@ -5474,16 +5724,19 @@
       <c r="G80" s="12"/>
       <c r="H80" s="12"/>
       <c r="I80" s="8" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="J80" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="K80" s="1" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K80" t="s">
+        <v>750</v>
+      </c>
+      <c r="L80" s="1" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>116</v>
       </c>
@@ -5511,11 +5764,14 @@
       <c r="J81" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="K81" s="1" t="s">
+      <c r="K81" t="s">
+        <v>752</v>
+      </c>
+      <c r="L81" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>117</v>
       </c>
@@ -5543,11 +5799,14 @@
       <c r="J82" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="K82" s="1" t="s">
+      <c r="K82" t="s">
+        <v>752</v>
+      </c>
+      <c r="L82" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>119</v>
       </c>
@@ -5575,8 +5834,11 @@
       <c r="J83" s="4" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K83" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>120</v>
       </c>
@@ -5604,11 +5866,14 @@
       <c r="J84" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="K84" s="1" t="s">
+      <c r="K84" t="s">
+        <v>751</v>
+      </c>
+      <c r="L84" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>121</v>
       </c>
@@ -5634,16 +5899,19 @@
         <v>5961978</v>
       </c>
       <c r="I85" s="16" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="J85" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="K85" s="1" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K85" t="s">
+        <v>751</v>
+      </c>
+      <c r="L85" s="1" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>122</v>
       </c>
@@ -5667,11 +5935,14 @@
       <c r="J86" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="K86" s="1" t="s">
+      <c r="K86" t="s">
+        <v>751</v>
+      </c>
+      <c r="L86" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>124</v>
       </c>
@@ -5699,8 +5970,11 @@
       <c r="J87" s="4" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K87" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>126</v>
       </c>
@@ -5726,16 +6000,19 @@
         <v>6818057</v>
       </c>
       <c r="I88" s="8" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="J88" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="K88" s="1" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K88" t="s">
+        <v>750</v>
+      </c>
+      <c r="L88" s="1" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>127</v>
       </c>
@@ -5753,16 +6030,19 @@
       <c r="G89" s="12"/>
       <c r="H89" s="12"/>
       <c r="I89" s="8" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="J89" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="K89" s="1" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K89" t="s">
+        <v>752</v>
+      </c>
+      <c r="L89" s="1" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>128</v>
       </c>
@@ -5784,16 +6064,19 @@
         <v>7210806</v>
       </c>
       <c r="I90" s="8" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="J90" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="K90" s="1" t="s">
+      <c r="K90" t="s">
+        <v>752</v>
+      </c>
+      <c r="L90" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>131</v>
       </c>
@@ -5819,16 +6102,19 @@
         <v>8279633</v>
       </c>
       <c r="I91" s="8" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="J91" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="K91" s="1" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K91" t="s">
+        <v>750</v>
+      </c>
+      <c r="L91" s="1" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>132</v>
       </c>
@@ -5854,16 +6140,19 @@
         <v>9488465</v>
       </c>
       <c r="I92" s="8" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="J92" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="K92" s="1" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K92" t="s">
+        <v>751</v>
+      </c>
+      <c r="L92" s="1" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>133</v>
       </c>
@@ -5889,16 +6178,19 @@
         <v>9500270</v>
       </c>
       <c r="I93" s="8" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="J93" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="K93" s="1" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K93" t="s">
+        <v>751</v>
+      </c>
+      <c r="L93" s="1" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>134</v>
       </c>
@@ -5924,16 +6216,19 @@
         <v>9511858</v>
       </c>
       <c r="I94" s="8" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="J94" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="K94" s="1" t="s">
+      <c r="K94" t="s">
+        <v>751</v>
+      </c>
+      <c r="L94" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>135</v>
       </c>
@@ -5951,16 +6246,19 @@
       <c r="G95" s="12"/>
       <c r="H95" s="12"/>
       <c r="I95" s="8" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="J95" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="K95" s="1" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K95" t="s">
+        <v>751</v>
+      </c>
+      <c r="L95" s="1" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>136</v>
       </c>
@@ -5988,11 +6286,14 @@
       <c r="J96" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="K96" s="1" t="s">
+      <c r="K96" t="s">
+        <v>751</v>
+      </c>
+      <c r="L96" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>137</v>
       </c>
@@ -6020,11 +6321,14 @@
       <c r="J97" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="K97" s="1" t="s">
+      <c r="K97" t="s">
+        <v>751</v>
+      </c>
+      <c r="L97" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>138</v>
       </c>
@@ -6046,16 +6350,19 @@
       <c r="G98" s="12"/>
       <c r="H98" s="12"/>
       <c r="I98" s="8" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="J98" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="K98" s="1" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K98" t="s">
+        <v>751</v>
+      </c>
+      <c r="L98" s="1" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>139</v>
       </c>
@@ -6077,16 +6384,19 @@
         <v>9547401</v>
       </c>
       <c r="I99" s="8" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="J99" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="K99" s="1" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K99" t="s">
+        <v>751</v>
+      </c>
+      <c r="L99" s="1" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>140</v>
       </c>
@@ -6112,16 +6422,19 @@
         <v>9566876</v>
       </c>
       <c r="I100" s="8" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="J100" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="K100" s="1" t="s">
+      <c r="K100" t="s">
+        <v>751</v>
+      </c>
+      <c r="L100" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>143</v>
       </c>
@@ -6147,16 +6460,19 @@
         <v>10633618</v>
       </c>
       <c r="I101" s="8" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="J101" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="K101" s="1" t="s">
+      <c r="K101" t="s">
+        <v>751</v>
+      </c>
+      <c r="L101" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>144</v>
       </c>
@@ -6182,16 +6498,19 @@
         <v>10639268</v>
       </c>
       <c r="I102" s="8" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="J102" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="K102" s="1" t="s">
+      <c r="K102" t="s">
+        <v>751</v>
+      </c>
+      <c r="L102" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>145</v>
       </c>
@@ -6217,16 +6536,19 @@
         <v>10639268</v>
       </c>
       <c r="I103" s="8" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="J103" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="K103" s="1" t="s">
+      <c r="K103" t="s">
+        <v>751</v>
+      </c>
+      <c r="L103" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>146</v>
       </c>
@@ -6252,18 +6574,21 @@
         <v>10657288</v>
       </c>
       <c r="I104" s="8" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="J104" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="K104" s="1" t="s">
+      <c r="K104" t="s">
+        <v>751</v>
+      </c>
+      <c r="L104" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="B105" s="4">
         <v>4</v>
@@ -6287,13 +6612,16 @@
         <v>12267515</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>688</v>
-      </c>
-      <c r="K105" s="1" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+        <v>684</v>
+      </c>
+      <c r="K105" t="s">
+        <v>750</v>
+      </c>
+      <c r="L105" s="1" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>149</v>
       </c>
@@ -6313,11 +6641,14 @@
       <c r="J106" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="K106" s="1" t="s">
+      <c r="K106" t="s">
+        <v>750</v>
+      </c>
+      <c r="L106" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>151</v>
       </c>
@@ -6338,8 +6669,11 @@
       <c r="H107" s="13">
         <v>13224203</v>
       </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K107" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>152</v>
       </c>
@@ -6363,11 +6697,14 @@
       <c r="J108" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="K108" s="1" t="s">
+      <c r="K108" t="s">
+        <v>752</v>
+      </c>
+      <c r="L108" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>153</v>
       </c>
@@ -6395,11 +6732,14 @@
       <c r="J109" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="K109" s="1" t="s">
+      <c r="K109" t="s">
+        <v>752</v>
+      </c>
+      <c r="L109" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>155</v>
       </c>
@@ -6417,16 +6757,19 @@
       <c r="G110" s="12"/>
       <c r="H110" s="12"/>
       <c r="I110" s="8" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="J110" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="K110" s="1" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K110" t="s">
+        <v>750</v>
+      </c>
+      <c r="L110" s="1" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>157</v>
       </c>
@@ -6444,16 +6787,19 @@
       <c r="G111" s="12"/>
       <c r="H111" s="12"/>
       <c r="I111" s="8" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="J111" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="K111" s="1" t="s">
+      <c r="K111" t="s">
+        <v>752</v>
+      </c>
+      <c r="L111" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>158</v>
       </c>
@@ -6475,16 +6821,19 @@
         <v>17110644</v>
       </c>
       <c r="I112" s="8" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="J112" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="K112" s="1" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K112" t="s">
+        <v>752</v>
+      </c>
+      <c r="L112" s="1" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>160</v>
       </c>
@@ -6510,16 +6859,19 @@
         <v>1363964</v>
       </c>
       <c r="I113" s="8" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="J113" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="K113" s="1" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K113" t="s">
+        <v>750</v>
+      </c>
+      <c r="L113" s="1" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>161</v>
       </c>
@@ -6545,13 +6897,16 @@
         <v>1597350</v>
       </c>
       <c r="I114" s="8" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="J114" s="4" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K114" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>162</v>
       </c>
@@ -6577,16 +6932,19 @@
         <v>3587977</v>
       </c>
       <c r="I115" s="8" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="J115" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="K115" s="1" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K115" t="s">
+        <v>750</v>
+      </c>
+      <c r="L115" s="1" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>163</v>
       </c>
@@ -6608,13 +6966,16 @@
       <c r="G116" s="12"/>
       <c r="H116" s="12"/>
       <c r="I116" s="16" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="J116" s="4" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K116" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>165</v>
       </c>
@@ -6640,16 +7001,19 @@
         <v>5908833</v>
       </c>
       <c r="I117" s="8" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="J117" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="K117" s="1" t="s">
+      <c r="K117" t="s">
+        <v>751</v>
+      </c>
+      <c r="L117" s="1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>166</v>
       </c>
@@ -6675,16 +7039,19 @@
         <v>5924371</v>
       </c>
       <c r="I118" s="8" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="J118" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="K118" s="1" t="s">
+      <c r="K118" t="s">
+        <v>751</v>
+      </c>
+      <c r="L118" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>167</v>
       </c>
@@ -6712,11 +7079,14 @@
       <c r="J119" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="K119" s="1" t="s">
+      <c r="K119" t="s">
+        <v>751</v>
+      </c>
+      <c r="L119" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>171</v>
       </c>
@@ -6744,11 +7114,14 @@
       <c r="J120" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="K120" s="1" t="s">
+      <c r="K120" t="s">
+        <v>751</v>
+      </c>
+      <c r="L120" s="1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>172</v>
       </c>
@@ -6774,16 +7147,19 @@
         <v>6079767</v>
       </c>
       <c r="I121" s="8" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="J121" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="K121" s="1" t="s">
+      <c r="K121" t="s">
+        <v>751</v>
+      </c>
+      <c r="L121" s="1" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>173</v>
       </c>
@@ -6809,16 +7185,19 @@
         <v>6083400</v>
       </c>
       <c r="I122" s="8" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="J122" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="K122" s="1" t="s">
+      <c r="K122" t="s">
+        <v>751</v>
+      </c>
+      <c r="L122" s="1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>177</v>
       </c>
@@ -6844,13 +7223,16 @@
         <v>7545480</v>
       </c>
       <c r="I123" s="8" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="J123" s="4" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K123" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>178</v>
       </c>
@@ -6876,16 +7258,19 @@
         <v>13672462</v>
       </c>
       <c r="I124" s="8" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="J124" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="K124" s="1" t="s">
+      <c r="K124" t="s">
+        <v>750</v>
+      </c>
+      <c r="L124" s="1" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>180</v>
       </c>
@@ -6911,13 +7296,16 @@
         <v>14567443</v>
       </c>
       <c r="I125" s="8" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="J125" s="4" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K125" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>181</v>
       </c>
@@ -6943,16 +7331,19 @@
         <v>15325784</v>
       </c>
       <c r="I126" s="8" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="J126" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="K126" s="1" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K126" t="s">
+        <v>750</v>
+      </c>
+      <c r="L126" s="1" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>182</v>
       </c>
@@ -6980,8 +7371,11 @@
       <c r="J127" s="4" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K127" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>183</v>
       </c>
@@ -7009,8 +7403,11 @@
       <c r="J128" s="4" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K128" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>184</v>
       </c>
@@ -7036,18 +7433,21 @@
         <v>15558900</v>
       </c>
       <c r="I129" s="8" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="J129" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="K129" s="1" t="s">
+      <c r="K129" t="s">
+        <v>750</v>
+      </c>
+      <c r="L129" s="1" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="B130" s="4">
         <v>5</v>
@@ -7071,13 +7471,16 @@
         <v>16039178</v>
       </c>
       <c r="I130" s="8" t="s">
-        <v>712</v>
-      </c>
-      <c r="K130" s="1" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+        <v>708</v>
+      </c>
+      <c r="K130" t="s">
+        <v>750</v>
+      </c>
+      <c r="L130" s="1" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>186</v>
       </c>
@@ -7099,16 +7502,19 @@
         <v>16041918</v>
       </c>
       <c r="I131" s="16" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="J131" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="K131" s="1" t="s">
+      <c r="K131" t="s">
+        <v>752</v>
+      </c>
+      <c r="L131" s="1" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>187</v>
       </c>
@@ -7130,16 +7536,19 @@
         <v>16049933</v>
       </c>
       <c r="I132" s="8" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="J132" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="K132" s="1" t="s">
+      <c r="K132" t="s">
+        <v>752</v>
+      </c>
+      <c r="L132" s="1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>190</v>
       </c>
@@ -7165,16 +7574,19 @@
         <v>16400653</v>
       </c>
       <c r="I133" s="8" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="J133" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="K133" s="1" t="s">
+      <c r="K133" t="s">
+        <v>751</v>
+      </c>
+      <c r="L133" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>191</v>
       </c>
@@ -7202,11 +7614,14 @@
       <c r="J134" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="K134" s="1" t="s">
+      <c r="K134" t="s">
+        <v>751</v>
+      </c>
+      <c r="L134" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>192</v>
       </c>
@@ -7232,16 +7647,19 @@
         <v>16617231</v>
       </c>
       <c r="I135" s="8" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="J135" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="K135" s="1" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K135" t="s">
+        <v>751</v>
+      </c>
+      <c r="L135" s="1" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>193</v>
       </c>
@@ -7267,16 +7685,19 @@
         <v>16693831</v>
       </c>
       <c r="I136" s="8" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="J136" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="K136" s="1" t="s">
+      <c r="K136" t="s">
+        <v>751</v>
+      </c>
+      <c r="L136" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>194</v>
       </c>
@@ -7302,16 +7723,19 @@
         <v>16700027</v>
       </c>
       <c r="I137" s="8" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="J137" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="K137" s="1" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K137" t="s">
+        <v>751</v>
+      </c>
+      <c r="L137" s="1" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>197</v>
       </c>
@@ -7333,16 +7757,19 @@
         <v>17462546</v>
       </c>
       <c r="I138" s="8" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="J138" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="K138" s="1" t="s">
+      <c r="K138" t="s">
+        <v>750</v>
+      </c>
+      <c r="L138" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>199</v>
       </c>
@@ -7366,11 +7793,14 @@
       <c r="J139" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="K139" s="1" t="s">
+      <c r="K139" t="s">
+        <v>751</v>
+      </c>
+      <c r="L139" s="1" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>200</v>
       </c>
@@ -7392,16 +7822,19 @@
         <v>17564696</v>
       </c>
       <c r="I140" s="8" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="J140" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="K140" s="1" t="s">
+      <c r="K140" t="s">
+        <v>751</v>
+      </c>
+      <c r="L140" s="1" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>201</v>
       </c>
@@ -7423,16 +7856,19 @@
       <c r="G141" s="12"/>
       <c r="H141" s="12"/>
       <c r="I141" s="8" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="J141" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="K141" s="1" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K141" t="s">
+        <v>751</v>
+      </c>
+      <c r="L141" s="1" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>203</v>
       </c>
@@ -7454,16 +7890,19 @@
       <c r="G142" s="12"/>
       <c r="H142" s="12"/>
       <c r="I142" s="8" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="J142" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="K142" s="1" t="s">
+      <c r="K142" t="s">
+        <v>750</v>
+      </c>
+      <c r="L142" s="1" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>205</v>
       </c>
@@ -7489,18 +7928,21 @@
         <v>18121330</v>
       </c>
       <c r="I143" s="8" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="J143" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="K143" s="1" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K143" t="s">
+        <v>751</v>
+      </c>
+      <c r="L143" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="B144" s="4">
         <v>5</v>
@@ -7525,11 +7967,14 @@
       <c r="J144" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="K144" s="1" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K144" t="s">
+        <v>751</v>
+      </c>
+      <c r="L144" s="1" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>206</v>
       </c>
@@ -7555,16 +8000,19 @@
         <v>18176893</v>
       </c>
       <c r="I145" s="8" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="J145" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="K145" s="1" t="s">
+      <c r="K145" t="s">
+        <v>751</v>
+      </c>
+      <c r="L145" s="1" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>207</v>
       </c>
@@ -7590,16 +8038,19 @@
         <v>18187629</v>
       </c>
       <c r="I146" s="8" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="J146" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="K146" s="1" t="s">
+      <c r="K146" t="s">
+        <v>751</v>
+      </c>
+      <c r="L146" s="1" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>210</v>
       </c>
@@ -7627,11 +8078,14 @@
       <c r="J147" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="K147" s="1" t="s">
+      <c r="K147" t="s">
+        <v>751</v>
+      </c>
+      <c r="L147" s="1" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>211</v>
       </c>
@@ -7662,11 +8116,14 @@
       <c r="J148" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="K148" s="1" t="s">
+      <c r="K148" t="s">
+        <v>751</v>
+      </c>
+      <c r="L148" s="1" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>212</v>
       </c>
@@ -7694,11 +8151,14 @@
       <c r="J149" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="K149" s="1" t="s">
+      <c r="K149" t="s">
+        <v>751</v>
+      </c>
+      <c r="L149" s="1" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>213</v>
       </c>
@@ -7726,11 +8186,14 @@
       <c r="J150" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="K150" s="1" t="s">
+      <c r="K150" t="s">
+        <v>751</v>
+      </c>
+      <c r="L150" s="1" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>214</v>
       </c>
@@ -7758,11 +8221,14 @@
       <c r="J151" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="K151" s="1" t="s">
+      <c r="K151" t="s">
+        <v>751</v>
+      </c>
+      <c r="L151" s="1" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>215</v>
       </c>
@@ -7788,16 +8254,19 @@
         <v>18321763</v>
       </c>
       <c r="I152" s="8" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="J152" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="K152" s="1" t="s">
+      <c r="K152" t="s">
+        <v>751</v>
+      </c>
+      <c r="L152" s="1" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>216</v>
       </c>
@@ -7823,16 +8292,19 @@
         <v>18333426</v>
       </c>
       <c r="I153" s="8" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="J153" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="K153" s="1" t="s">
+      <c r="K153" t="s">
+        <v>751</v>
+      </c>
+      <c r="L153" s="1" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>219</v>
       </c>
@@ -7860,11 +8332,14 @@
       <c r="I154" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="K154" s="1" t="s">
+      <c r="K154" t="s">
+        <v>752</v>
+      </c>
+      <c r="L154" s="1" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>220</v>
       </c>
@@ -7886,11 +8361,14 @@
         <v>18432445</v>
       </c>
       <c r="I155" s="16"/>
-      <c r="K155" s="1" t="s">
+      <c r="K155" t="s">
+        <v>752</v>
+      </c>
+      <c r="L155" s="1" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>222</v>
       </c>
@@ -7916,16 +8394,19 @@
         <v>18758698</v>
       </c>
       <c r="I156" s="8" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="J156" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="K156" s="1" t="s">
+      <c r="K156" t="s">
+        <v>751</v>
+      </c>
+      <c r="L156" s="1" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>223</v>
       </c>
@@ -7951,16 +8432,19 @@
         <v>18763971</v>
       </c>
       <c r="I157" s="8" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="J157" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="K157" s="1" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K157" t="s">
+        <v>751</v>
+      </c>
+      <c r="L157" s="1" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>224</v>
       </c>
@@ -7986,16 +8470,19 @@
         <v>18840195</v>
       </c>
       <c r="I158" s="8" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="J158" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="K158" s="1" t="s">
+      <c r="K158" t="s">
+        <v>751</v>
+      </c>
+      <c r="L158" s="1" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>225</v>
       </c>
@@ -8021,16 +8508,19 @@
         <v>18850644</v>
       </c>
       <c r="I159" s="8" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="J159" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="K159" s="1" t="s">
+      <c r="K159" t="s">
+        <v>751</v>
+      </c>
+      <c r="L159" s="1" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>226</v>
       </c>
@@ -8056,16 +8546,19 @@
         <v>18855954</v>
       </c>
       <c r="I160" s="8" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="J160" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="K160" s="1" t="s">
+      <c r="K160" t="s">
+        <v>751</v>
+      </c>
+      <c r="L160" s="1" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>227</v>
       </c>
@@ -8091,16 +8584,19 @@
         <v>18867615</v>
       </c>
       <c r="I161" s="8" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="J161" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="K161" s="1" t="s">
+      <c r="K161" t="s">
+        <v>751</v>
+      </c>
+      <c r="L161" s="1" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>228</v>
       </c>
@@ -8126,16 +8622,19 @@
         <v>18875381</v>
       </c>
       <c r="I162" s="8" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="J162" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="K162" s="1" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K162" t="s">
+        <v>751</v>
+      </c>
+      <c r="L162" s="1" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="163" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>231</v>
       </c>
@@ -8163,11 +8662,14 @@
       <c r="J163" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="K163" s="1" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K163" t="s">
+        <v>751</v>
+      </c>
+      <c r="L163" s="1" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="164" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>232</v>
       </c>
@@ -8195,11 +8697,14 @@
       <c r="J164" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="K164" s="1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K164" t="s">
+        <v>751</v>
+      </c>
+      <c r="L164" s="1" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="165" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>233</v>
       </c>
@@ -8224,13 +8729,16 @@
       <c r="H165" s="13">
         <v>19197039</v>
       </c>
-      <c r="K165" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K165" t="s">
+        <v>751</v>
+      </c>
+      <c r="L165" s="1" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="166" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A166" s="10" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B166" s="4">
         <v>5</v>
@@ -8250,18 +8758,21 @@
       <c r="G166" s="12"/>
       <c r="H166" s="12"/>
       <c r="I166" s="8" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="J166" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="K166" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K166" t="s">
+        <v>750</v>
+      </c>
+      <c r="L166" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="167" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B167" s="4">
         <v>5</v>
@@ -8283,13 +8794,16 @@
       <c r="J167" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="K167" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K167" t="s">
+        <v>751</v>
+      </c>
+      <c r="L167" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="168" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B168" s="4">
         <v>5</v>
@@ -8308,13 +8822,16 @@
       </c>
       <c r="G168" s="12"/>
       <c r="H168" s="12"/>
-      <c r="K168" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K168" t="s">
+        <v>751</v>
+      </c>
+      <c r="L168" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="169" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B169" s="4">
         <v>5</v>
@@ -8340,13 +8857,16 @@
       <c r="J169" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="K169" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K169" t="s">
+        <v>751</v>
+      </c>
+      <c r="L169" s="1" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="170" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B170" s="4">
         <v>5</v>
@@ -8372,10 +8892,13 @@
       <c r="J170" s="4" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K170" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="171" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B171" s="4">
         <v>5</v>
@@ -8395,15 +8918,18 @@
       <c r="G171" s="12"/>
       <c r="H171" s="12"/>
       <c r="I171" s="8" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="J171" s="4" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K171" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="172" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B172" s="4">
         <v>5</v>
@@ -8423,18 +8949,24 @@
       <c r="G172" s="12"/>
       <c r="H172" s="12"/>
       <c r="I172" s="8" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="J172" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="K172" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K172" t="s">
+        <v>750</v>
+      </c>
+      <c r="L172" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q172" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="173" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B173" s="4">
         <v>5</v>
@@ -8454,18 +8986,21 @@
       <c r="G173" s="12"/>
       <c r="H173" s="12"/>
       <c r="I173" s="8" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="J173" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="K173" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K173" t="s">
+        <v>750</v>
+      </c>
+      <c r="L173" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="174" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B174" s="4">
         <v>5</v>
@@ -8489,18 +9024,21 @@
         <v>26714722</v>
       </c>
       <c r="I174" s="8" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="J174" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="K174" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+      <c r="K174" t="s">
+        <v>752</v>
+      </c>
+      <c r="L174" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="175" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B175" s="4">
         <v>5</v>
@@ -8524,13 +9062,16 @@
         <v>26718129</v>
       </c>
       <c r="I175" s="8" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="J175" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="K175" s="1" t="s">
-        <v>749</v>
+        <v>240</v>
+      </c>
+      <c r="K175" t="s">
+        <v>752</v>
+      </c>
+      <c r="L175" s="1" t="s">
+        <v>745</v>
       </c>
     </row>
   </sheetData>
@@ -9132,7 +9673,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF5E1E1E-2444-4B92-8539-96DD98B66685}">
   <dimension ref="A1:F80"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" zoomScale="127" workbookViewId="0">
+    <sheetView zoomScale="127" workbookViewId="0">
       <selection activeCell="C45" sqref="B45:C45"/>
     </sheetView>
   </sheetViews>
@@ -9149,16 +9690,16 @@
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="E1" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="F1" s="5"/>
     </row>
@@ -9188,7 +9729,7 @@
         <v>4182593</v>
       </c>
       <c r="D3" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -9230,7 +9771,7 @@
         <v>9446106</v>
       </c>
       <c r="D6" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -9328,7 +9869,7 @@
         <v>21185495</v>
       </c>
       <c r="D13" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -9356,7 +9897,7 @@
         <v>21832708</v>
       </c>
       <c r="D15" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -9398,7 +9939,7 @@
         <v>22616373</v>
       </c>
       <c r="D18" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -9426,7 +9967,7 @@
         <v>23502321</v>
       </c>
       <c r="D20" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -9440,7 +9981,7 @@
         <v>23783449</v>
       </c>
       <c r="D21" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -9468,7 +10009,7 @@
         <v>24604763</v>
       </c>
       <c r="D23" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -9496,7 +10037,7 @@
         <v>27445997</v>
       </c>
       <c r="D25" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -9538,7 +10079,7 @@
         <v>7426890</v>
       </c>
       <c r="D28" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -9552,7 +10093,7 @@
         <v>1108069</v>
       </c>
       <c r="D29" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -9566,7 +10107,7 @@
         <v>2229555</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -9580,7 +10121,7 @@
         <v>4861247</v>
       </c>
       <c r="D31" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -9622,7 +10163,7 @@
         <v>16221722</v>
       </c>
       <c r="D34" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -9636,7 +10177,7 @@
         <v>17215755</v>
       </c>
       <c r="D35" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -9692,7 +10233,7 @@
         <v>5973113</v>
       </c>
       <c r="D39" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -9762,7 +10303,7 @@
         <v>9565550</v>
       </c>
       <c r="D44" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -9790,7 +10331,7 @@
         <v>13227872</v>
       </c>
       <c r="D46" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -9818,7 +10359,7 @@
         <v>13636712</v>
       </c>
       <c r="D48" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -9846,7 +10387,7 @@
         <v>17108711</v>
       </c>
       <c r="D50" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -9916,7 +10457,7 @@
         <v>5951619</v>
       </c>
       <c r="D55" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -9930,7 +10471,7 @@
         <v>6088926</v>
       </c>
       <c r="D56" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -9958,7 +10499,7 @@
         <v>13671184</v>
       </c>
       <c r="D58" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -10028,7 +10569,7 @@
         <v>15558732</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -10042,7 +10583,7 @@
         <v>16047355</v>
       </c>
       <c r="D64" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -10070,7 +10611,7 @@
         <v>17467448</v>
       </c>
       <c r="D66" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -10084,7 +10625,7 @@
         <v>17568802</v>
       </c>
       <c r="D67" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -10098,7 +10639,7 @@
         <v>17934188</v>
       </c>
       <c r="D68" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -10112,7 +10653,7 @@
         <v>18186495</v>
       </c>
       <c r="D69" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -10126,7 +10667,7 @@
         <v>18332609</v>
       </c>
       <c r="D70" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -10140,7 +10681,7 @@
         <v>18432397</v>
       </c>
       <c r="D71" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -10154,7 +10695,7 @@
         <v>18872415</v>
       </c>
       <c r="D72" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -10168,7 +10709,7 @@
         <v>19195559</v>
       </c>
       <c r="D73" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -10182,7 +10723,7 @@
         <v>19721452</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -10196,7 +10737,7 @@
         <v>19779815</v>
       </c>
       <c r="D75" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -10210,7 +10751,7 @@
         <v>19923415</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -10224,7 +10765,7 @@
         <v>20974916</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -10238,7 +10779,7 @@
         <v>23521067</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -10252,7 +10793,7 @@
         <v>25286002</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -10266,7 +10807,7 @@
         <v>26721256</v>
       </c>
       <c r="D80" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -10291,2261 +10832,2261 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="D1" s="2"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B2" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C2" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B3" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B4" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C4" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B5" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C5" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="B6" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C6" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="B7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C7" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B8" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="B9" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B10" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B11" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B12" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C12" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="B13" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B14" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="B15" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B16" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="B17" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B18" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="B19" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B20" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C20" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B21" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="B22" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C22" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B23" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="B24" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B25" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B26" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C26" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="B27" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B28" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C28" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B29" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C29" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B30" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B31" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B32" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C32" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B33" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B34" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B35" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B36" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C36" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B37" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B38" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="B39" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="B40" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="B41" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B42" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="B43" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="B44" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="B45" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C45" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="B46" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B47" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="B48" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C48" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="B49" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B50" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C50" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="B51" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B52" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="B53" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B54" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="B55" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="B56" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B57" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="B58" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C58" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B59" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="B60" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B61" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B62" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B63" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B64" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="B65" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C65" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="B66" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C66" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B67" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="B68" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C68" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="B69" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="B70" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C70" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B71" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="B72" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B73" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B74" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B75" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B76" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C76" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B77" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C77" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B78" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C78" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B79" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C79" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="B80" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B81" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="B82" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C82" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B83" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C83" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="B84" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C84" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B85" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C85" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="B86" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C86" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="B87" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="B88" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="B89" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="B90" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C90" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="B91" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C91" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B92" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="B93" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="B94" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C94" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="B95" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C95" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="B96" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C96" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="B97" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="B98" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C98" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="B99" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="B100" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="B101" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C101" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="B102" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C102" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B103" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C103" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="B104" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="B105" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="B106" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="B107" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="B108" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C108" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="B109" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="B110" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C110" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="B111" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="B112" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="B113" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B114" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="B115" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="B116" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="B117" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="B118" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="B119" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="B120" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C120" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="B121" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C121" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="B122" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C122" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="B123" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C123" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="B124" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C124" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="B125" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C125" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="B126" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="B127" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C127" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="B128" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="B129" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="B130" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C130" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="B131" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C131" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="B132" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="B133" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="B134" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="B135" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="B136" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C136" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="B137" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C137" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="B138" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C138" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="B139" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="B140" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="B141" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="B142" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B143" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="B144" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="B145" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="B146" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="B147" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="B148" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C148" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="8" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="B149" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="B150" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="B151" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C151" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="B152" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C152" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="B153" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C153" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="B154" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="B155" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="B156" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C156" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="B157" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="B158" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="B159" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="B160" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="B161" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="B162" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="B163" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B164" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="B165" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="B166" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="B167" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="B168" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C168" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="B169" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="B170" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="B171" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="B172" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="B173" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="B174" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="B175" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="B176" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="B177" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="C177" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="B178" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="C178" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="B179" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="C179" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="B180" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="B181" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C181" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="B182" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C182" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="B183" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="B184" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="B185" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="B186" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B187" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="B188" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="B189" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="B190" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="B191" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="B192" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="B193" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="B194" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="B195" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="B196" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="B197" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="B198" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="B199" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="B200" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="B201" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="B202" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B203" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C203" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="B204" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B205" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="B206" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="B207" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="B208" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C208" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="B209" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="B210" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="B211" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="B212" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="B213" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="B214" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="B215" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="B216" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="B217" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="B218" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="B219" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="B220" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="B221" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="B222" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="B223" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="B224" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="B225" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C225" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B226" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B227" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="B228" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="B229" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="B230" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="B231" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B232" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="B233" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="B234" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="B235" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="B236" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="B237" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="B238" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="B239" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C239" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="B240" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="B241" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="B242" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="B243" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C243" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="B244" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="B245" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C245" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="B246" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="B247" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="B248" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="B249" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="B250" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="B251" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="B252" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B253" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="B254" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="B255" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="B256" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -12555,9 +13096,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12732,27 +13276,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8A9401F-48F2-48A8-9905-53282ECD946A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A24C43BF-D402-4F87-99F4-C9E3E4401A98}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="f8cc16dc-7588-4949-9133-852c9419a450"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="6db678f3-3207-45a7-bb76-4f6b54a03069"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -12777,9 +13309,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A24C43BF-D402-4F87-99F4-C9E3E4401A98}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8A9401F-48F2-48A8-9905-53282ECD946A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="f8cc16dc-7588-4949-9133-852c9419a450"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="6db678f3-3207-45a7-bb76-4f6b54a03069"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Data/Arabidopsis NLRs.xlsx
+++ b/Data/Arabidopsis NLRs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/42a5ee813758fc42/Documents/PhD/PhD.git/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="109" documentId="13_ncr:1_{26DE7592-D2EB-42C3-B535-88D3D0E41D14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FF2749D4-ED06-4CFA-B41D-2EB9045FFA90}"/>
+  <xr:revisionPtr revIDLastSave="222" documentId="13_ncr:1_{26DE7592-D2EB-42C3-B535-88D3D0E41D14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{35D2BDAE-9099-4AAD-A3FD-9490603EB31E}"/>
   <bookViews>
-    <workbookView xWindow="16140" yWindow="1035" windowWidth="21600" windowHeight="11295" xr2:uid="{C4807C64-294B-40AB-88C6-14C535B56F75}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C4807C64-294B-40AB-88C6-14C535B56F75}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1464" uniqueCount="757">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1464" uniqueCount="788">
   <si>
     <t xml:space="preserve">Gene </t>
   </si>
@@ -2347,12 +2347,6 @@
     <t>single</t>
   </si>
   <si>
-    <t>cluster</t>
-  </si>
-  <si>
-    <t>double</t>
-  </si>
-  <si>
     <t>Minor cluster cAT5G47250</t>
   </si>
   <si>
@@ -2363,6 +2357,105 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>cluster 1</t>
+  </si>
+  <si>
+    <t>cluster 2</t>
+  </si>
+  <si>
+    <t>cluster 3</t>
+  </si>
+  <si>
+    <t>cluster 4</t>
+  </si>
+  <si>
+    <t>cluster 5</t>
+  </si>
+  <si>
+    <t>cluster 6</t>
+  </si>
+  <si>
+    <t>cluster 7</t>
+  </si>
+  <si>
+    <t>cluster 8</t>
+  </si>
+  <si>
+    <t>cluster 9</t>
+  </si>
+  <si>
+    <t>cluster 10</t>
+  </si>
+  <si>
+    <t>cluster 11</t>
+  </si>
+  <si>
+    <t>cluster 12</t>
+  </si>
+  <si>
+    <t>cluster 13</t>
+  </si>
+  <si>
+    <t>cluster 14</t>
+  </si>
+  <si>
+    <t>cluster 15</t>
+  </si>
+  <si>
+    <t>cluster 16</t>
+  </si>
+  <si>
+    <t>cluster 17</t>
+  </si>
+  <si>
+    <t>cluster 18</t>
+  </si>
+  <si>
+    <t>cluster 19</t>
+  </si>
+  <si>
+    <t>cluster 20</t>
+  </si>
+  <si>
+    <t>cluster 21</t>
+  </si>
+  <si>
+    <t>cluster 22</t>
+  </si>
+  <si>
+    <t>cluster 23</t>
+  </si>
+  <si>
+    <t>cluster 24</t>
+  </si>
+  <si>
+    <t>cluster 25</t>
+  </si>
+  <si>
+    <t>cluster 26</t>
+  </si>
+  <si>
+    <t>cluster 27</t>
+  </si>
+  <si>
+    <t>cluster 28</t>
+  </si>
+  <si>
+    <t>cluster 29</t>
+  </si>
+  <si>
+    <t>cluster 30</t>
+  </si>
+  <si>
+    <t>cluster 31</t>
+  </si>
+  <si>
+    <t>cluster 32</t>
+  </si>
+  <si>
+    <t>cluster 33</t>
   </si>
 </sst>
 </file>
@@ -2575,6 +2668,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2876,8 +2973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{191DFE7A-968B-4121-ADF6-CD647A0755EC}">
   <dimension ref="A1:Q175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A135" zoomScale="81" workbookViewId="0">
-      <selection activeCell="A174" sqref="A174"/>
+    <sheetView tabSelected="1" topLeftCell="A136" zoomScale="81" workbookViewId="0">
+      <selection activeCell="K175" sqref="K175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2992,7 +3089,7 @@
         <v>68</v>
       </c>
       <c r="K3" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>4</v>
@@ -3030,7 +3127,7 @@
         <v>68</v>
       </c>
       <c r="K4" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>581</v>
@@ -3064,7 +3161,7 @@
         <v>68</v>
       </c>
       <c r="K5" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>4</v>
@@ -3098,7 +3195,7 @@
         <v>68</v>
       </c>
       <c r="K6" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>583</v>
@@ -3170,7 +3267,7 @@
         <v>69</v>
       </c>
       <c r="K8" t="s">
-        <v>751</v>
+        <v>756</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>13</v>
@@ -3201,7 +3298,7 @@
         <v>69</v>
       </c>
       <c r="K9" t="s">
-        <v>751</v>
+        <v>756</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>13</v>
@@ -3236,7 +3333,7 @@
         <v>69</v>
       </c>
       <c r="K10" t="s">
-        <v>751</v>
+        <v>756</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>13</v>
@@ -3274,7 +3371,7 @@
         <v>69</v>
       </c>
       <c r="K11" t="s">
-        <v>752</v>
+        <v>757</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>587</v>
@@ -3312,7 +3409,7 @@
         <v>69</v>
       </c>
       <c r="K12" t="s">
-        <v>752</v>
+        <v>757</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>54</v>
@@ -3552,7 +3649,7 @@
         <v>69</v>
       </c>
       <c r="K19" t="s">
-        <v>751</v>
+        <v>758</v>
       </c>
       <c r="L19" s="1" t="s">
         <v>28</v>
@@ -3590,7 +3687,7 @@
         <v>69</v>
       </c>
       <c r="K20" t="s">
-        <v>751</v>
+        <v>758</v>
       </c>
       <c r="L20" s="1" t="s">
         <v>29</v>
@@ -3628,7 +3725,7 @@
         <v>69</v>
       </c>
       <c r="K21" t="s">
-        <v>751</v>
+        <v>758</v>
       </c>
       <c r="L21" s="1" t="s">
         <v>594</v>
@@ -3695,7 +3792,7 @@
         <v>68</v>
       </c>
       <c r="K23" t="s">
-        <v>751</v>
+        <v>759</v>
       </c>
       <c r="L23" s="1" t="s">
         <v>40</v>
@@ -3733,7 +3830,7 @@
         <v>68</v>
       </c>
       <c r="K24" t="s">
-        <v>751</v>
+        <v>759</v>
       </c>
       <c r="L24" s="1" t="s">
         <v>595</v>
@@ -3771,7 +3868,7 @@
         <v>68</v>
       </c>
       <c r="K25" t="s">
-        <v>751</v>
+        <v>759</v>
       </c>
       <c r="L25" s="1" t="s">
         <v>40</v>
@@ -3809,7 +3906,7 @@
         <v>68</v>
       </c>
       <c r="K26" t="s">
-        <v>751</v>
+        <v>759</v>
       </c>
       <c r="L26" s="1" t="s">
         <v>39</v>
@@ -3844,7 +3941,7 @@
         <v>68</v>
       </c>
       <c r="K27" t="s">
-        <v>751</v>
+        <v>759</v>
       </c>
       <c r="L27" s="1" t="s">
         <v>40</v>
@@ -3879,7 +3976,7 @@
         <v>68</v>
       </c>
       <c r="K28" t="s">
-        <v>751</v>
+        <v>759</v>
       </c>
       <c r="L28" s="1" t="s">
         <v>40</v>
@@ -3914,7 +4011,7 @@
         <v>68</v>
       </c>
       <c r="K29" t="s">
-        <v>751</v>
+        <v>759</v>
       </c>
       <c r="L29" s="1" t="s">
         <v>40</v>
@@ -3949,7 +4046,7 @@
         <v>68</v>
       </c>
       <c r="K30" t="s">
-        <v>751</v>
+        <v>759</v>
       </c>
       <c r="L30" s="1" t="s">
         <v>40</v>
@@ -4057,7 +4154,7 @@
         <v>68</v>
       </c>
       <c r="K33" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="L33" s="1" t="s">
         <v>50</v>
@@ -4095,7 +4192,7 @@
         <v>68</v>
       </c>
       <c r="K34" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="L34" s="1" t="s">
         <v>48</v>
@@ -4133,7 +4230,7 @@
         <v>68</v>
       </c>
       <c r="K35" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="L35" s="1" t="s">
         <v>603</v>
@@ -4171,7 +4268,7 @@
         <v>68</v>
       </c>
       <c r="K36" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="L36" s="1" t="s">
         <v>49</v>
@@ -4240,7 +4337,7 @@
         <v>68</v>
       </c>
       <c r="K38" t="s">
-        <v>752</v>
+        <v>761</v>
       </c>
       <c r="L38" s="1" t="s">
         <v>607</v>
@@ -4278,7 +4375,7 @@
         <v>68</v>
       </c>
       <c r="K39" t="s">
-        <v>752</v>
+        <v>761</v>
       </c>
       <c r="L39" s="1" t="s">
         <v>609</v>
@@ -4316,7 +4413,7 @@
         <v>69</v>
       </c>
       <c r="K40" t="s">
-        <v>751</v>
+        <v>762</v>
       </c>
       <c r="L40" s="1" t="s">
         <v>62</v>
@@ -4354,7 +4451,7 @@
         <v>69</v>
       </c>
       <c r="K41" t="s">
-        <v>751</v>
+        <v>762</v>
       </c>
       <c r="L41" s="1" t="s">
         <v>611</v>
@@ -4392,7 +4489,7 @@
         <v>69</v>
       </c>
       <c r="K42" t="s">
-        <v>751</v>
+        <v>762</v>
       </c>
       <c r="L42" s="1" t="s">
         <v>612</v>
@@ -4430,7 +4527,7 @@
         <v>69</v>
       </c>
       <c r="K43" t="s">
-        <v>751</v>
+        <v>762</v>
       </c>
       <c r="L43" s="1" t="s">
         <v>613</v>
@@ -4465,7 +4562,7 @@
         <v>69</v>
       </c>
       <c r="K44" t="s">
-        <v>751</v>
+        <v>762</v>
       </c>
       <c r="L44" s="1" t="s">
         <v>62</v>
@@ -4503,7 +4600,7 @@
         <v>69</v>
       </c>
       <c r="K45" t="s">
-        <v>751</v>
+        <v>762</v>
       </c>
       <c r="L45" s="1" t="s">
         <v>62</v>
@@ -4538,7 +4635,7 @@
         <v>69</v>
       </c>
       <c r="K46" t="s">
-        <v>751</v>
+        <v>762</v>
       </c>
       <c r="L46" s="1" t="s">
         <v>63</v>
@@ -4684,7 +4781,7 @@
         <v>69</v>
       </c>
       <c r="K50" t="s">
-        <v>751</v>
+        <v>763</v>
       </c>
       <c r="L50" s="1" t="s">
         <v>83</v>
@@ -4715,7 +4812,7 @@
         <v>69</v>
       </c>
       <c r="K51" t="s">
-        <v>751</v>
+        <v>763</v>
       </c>
       <c r="L51" s="1" t="s">
         <v>84</v>
@@ -4743,7 +4840,7 @@
       <c r="G52" s="12"/>
       <c r="H52" s="12"/>
       <c r="K52" t="s">
-        <v>751</v>
+        <v>763</v>
       </c>
       <c r="L52" s="1" t="s">
         <v>82</v>
@@ -4770,7 +4867,7 @@
         <v>69</v>
       </c>
       <c r="K53" t="s">
-        <v>751</v>
+        <v>763</v>
       </c>
       <c r="L53" s="1" t="s">
         <v>85</v>
@@ -4801,7 +4898,7 @@
         <v>69</v>
       </c>
       <c r="K54" t="s">
-        <v>751</v>
+        <v>763</v>
       </c>
       <c r="L54" s="1" t="s">
         <v>86</v>
@@ -4839,7 +4936,7 @@
         <v>69</v>
       </c>
       <c r="K55" t="s">
-        <v>751</v>
+        <v>763</v>
       </c>
       <c r="L55" s="1" t="s">
         <v>619</v>
@@ -4877,7 +4974,7 @@
         <v>69</v>
       </c>
       <c r="K56" t="s">
-        <v>751</v>
+        <v>763</v>
       </c>
       <c r="L56" s="1" t="s">
         <v>621</v>
@@ -4915,7 +5012,7 @@
         <v>69</v>
       </c>
       <c r="K57" t="s">
-        <v>751</v>
+        <v>763</v>
       </c>
       <c r="L57" s="1" t="s">
         <v>623</v>
@@ -4953,7 +5050,7 @@
         <v>69</v>
       </c>
       <c r="K58" t="s">
-        <v>751</v>
+        <v>763</v>
       </c>
       <c r="L58" s="1" t="s">
         <v>87</v>
@@ -4991,7 +5088,7 @@
         <v>69</v>
       </c>
       <c r="K59" t="s">
-        <v>751</v>
+        <v>763</v>
       </c>
       <c r="L59" s="1" t="s">
         <v>628</v>
@@ -5029,7 +5126,7 @@
         <v>69</v>
       </c>
       <c r="K60" t="s">
-        <v>751</v>
+        <v>763</v>
       </c>
       <c r="L60" s="1" t="s">
         <v>629</v>
@@ -5060,7 +5157,7 @@
         <v>69</v>
       </c>
       <c r="K61" t="s">
-        <v>751</v>
+        <v>763</v>
       </c>
       <c r="L61" s="1" t="s">
         <v>88</v>
@@ -5167,7 +5264,7 @@
         <v>69</v>
       </c>
       <c r="K64" t="s">
-        <v>752</v>
+        <v>764</v>
       </c>
       <c r="L64" s="1" t="s">
         <v>95</v>
@@ -5202,7 +5299,7 @@
         <v>69</v>
       </c>
       <c r="K65" t="s">
-        <v>752</v>
+        <v>764</v>
       </c>
       <c r="L65" s="1" t="s">
         <v>95</v>
@@ -5240,7 +5337,7 @@
         <v>69</v>
       </c>
       <c r="K66" t="s">
-        <v>752</v>
+        <v>765</v>
       </c>
       <c r="L66" s="1" t="s">
         <v>632</v>
@@ -5278,7 +5375,7 @@
         <v>69</v>
       </c>
       <c r="K67" t="s">
-        <v>752</v>
+        <v>765</v>
       </c>
       <c r="L67" s="1" t="s">
         <v>633</v>
@@ -5344,7 +5441,7 @@
         <v>673</v>
       </c>
       <c r="K69" t="s">
-        <v>752</v>
+        <v>766</v>
       </c>
       <c r="L69" s="1" t="s">
         <v>99</v>
@@ -5382,7 +5479,7 @@
         <v>68</v>
       </c>
       <c r="K70" t="s">
-        <v>752</v>
+        <v>766</v>
       </c>
       <c r="L70" s="1" t="s">
         <v>635</v>
@@ -5490,7 +5587,7 @@
         <v>69</v>
       </c>
       <c r="K73" t="s">
-        <v>751</v>
+        <v>767</v>
       </c>
       <c r="L73" s="1" t="s">
         <v>106</v>
@@ -5524,7 +5621,7 @@
         <v>69</v>
       </c>
       <c r="K74" t="s">
-        <v>751</v>
+        <v>767</v>
       </c>
       <c r="L74" s="1" t="s">
         <v>107</v>
@@ -5562,7 +5659,7 @@
         <v>69</v>
       </c>
       <c r="K75" t="s">
-        <v>751</v>
+        <v>767</v>
       </c>
       <c r="L75" s="1" t="s">
         <v>106</v>
@@ -5596,7 +5693,7 @@
         <v>69</v>
       </c>
       <c r="K76" t="s">
-        <v>751</v>
+        <v>767</v>
       </c>
       <c r="L76" s="1" t="s">
         <v>108</v>
@@ -5630,7 +5727,7 @@
         <v>68</v>
       </c>
       <c r="K77" t="s">
-        <v>751</v>
+        <v>768</v>
       </c>
       <c r="L77" s="1" t="s">
         <v>113</v>
@@ -5665,7 +5762,7 @@
         <v>68</v>
       </c>
       <c r="K78" t="s">
-        <v>751</v>
+        <v>768</v>
       </c>
       <c r="L78" s="1" t="s">
         <v>112</v>
@@ -5696,7 +5793,7 @@
         <v>68</v>
       </c>
       <c r="K79" t="s">
-        <v>751</v>
+        <v>768</v>
       </c>
       <c r="L79" s="1" t="s">
         <v>112</v>
@@ -5765,7 +5862,7 @@
         <v>69</v>
       </c>
       <c r="K81" t="s">
-        <v>752</v>
+        <v>769</v>
       </c>
       <c r="L81" s="1" t="s">
         <v>118</v>
@@ -5800,7 +5897,7 @@
         <v>69</v>
       </c>
       <c r="K82" t="s">
-        <v>752</v>
+        <v>769</v>
       </c>
       <c r="L82" s="1" t="s">
         <v>118</v>
@@ -5867,7 +5964,7 @@
         <v>69</v>
       </c>
       <c r="K84" t="s">
-        <v>751</v>
+        <v>770</v>
       </c>
       <c r="L84" s="1" t="s">
         <v>123</v>
@@ -5905,7 +6002,7 @@
         <v>69</v>
       </c>
       <c r="K85" t="s">
-        <v>751</v>
+        <v>770</v>
       </c>
       <c r="L85" s="1" t="s">
         <v>748</v>
@@ -5936,7 +6033,7 @@
         <v>69</v>
       </c>
       <c r="K86" t="s">
-        <v>751</v>
+        <v>770</v>
       </c>
       <c r="L86" s="1" t="s">
         <v>123</v>
@@ -6036,7 +6133,7 @@
         <v>69</v>
       </c>
       <c r="K89" t="s">
-        <v>752</v>
+        <v>771</v>
       </c>
       <c r="L89" s="1" t="s">
         <v>643</v>
@@ -6070,7 +6167,7 @@
         <v>69</v>
       </c>
       <c r="K90" t="s">
-        <v>752</v>
+        <v>771</v>
       </c>
       <c r="L90" s="1" t="s">
         <v>130</v>
@@ -6146,7 +6243,7 @@
         <v>69</v>
       </c>
       <c r="K92" t="s">
-        <v>751</v>
+        <v>772</v>
       </c>
       <c r="L92" s="1" t="s">
         <v>646</v>
@@ -6184,7 +6281,7 @@
         <v>69</v>
       </c>
       <c r="K93" t="s">
-        <v>751</v>
+        <v>772</v>
       </c>
       <c r="L93" s="1" t="s">
         <v>647</v>
@@ -6222,7 +6319,7 @@
         <v>69</v>
       </c>
       <c r="K94" t="s">
-        <v>751</v>
+        <v>772</v>
       </c>
       <c r="L94" s="1" t="s">
         <v>141</v>
@@ -6252,7 +6349,7 @@
         <v>69</v>
       </c>
       <c r="K95" t="s">
-        <v>751</v>
+        <v>772</v>
       </c>
       <c r="L95" s="1" t="s">
         <v>651</v>
@@ -6287,7 +6384,7 @@
         <v>69</v>
       </c>
       <c r="K96" t="s">
-        <v>751</v>
+        <v>772</v>
       </c>
       <c r="L96" s="1" t="s">
         <v>141</v>
@@ -6322,7 +6419,7 @@
         <v>69</v>
       </c>
       <c r="K97" t="s">
-        <v>751</v>
+        <v>772</v>
       </c>
       <c r="L97" s="1" t="s">
         <v>141</v>
@@ -6356,7 +6453,7 @@
         <v>69</v>
       </c>
       <c r="K98" t="s">
-        <v>751</v>
+        <v>772</v>
       </c>
       <c r="L98" s="1" t="s">
         <v>653</v>
@@ -6390,7 +6487,7 @@
         <v>69</v>
       </c>
       <c r="K99" t="s">
-        <v>751</v>
+        <v>772</v>
       </c>
       <c r="L99" s="1" t="s">
         <v>649</v>
@@ -6428,7 +6525,7 @@
         <v>69</v>
       </c>
       <c r="K100" t="s">
-        <v>751</v>
+        <v>772</v>
       </c>
       <c r="L100" s="1" t="s">
         <v>142</v>
@@ -6466,7 +6563,7 @@
         <v>69</v>
       </c>
       <c r="K101" t="s">
-        <v>751</v>
+        <v>773</v>
       </c>
       <c r="L101" s="1" t="s">
         <v>148</v>
@@ -6504,7 +6601,7 @@
         <v>69</v>
       </c>
       <c r="K102" t="s">
-        <v>751</v>
+        <v>773</v>
       </c>
       <c r="L102" s="1" t="s">
         <v>148</v>
@@ -6542,7 +6639,7 @@
         <v>69</v>
       </c>
       <c r="K103" t="s">
-        <v>751</v>
+        <v>773</v>
       </c>
       <c r="L103" s="1" t="s">
         <v>147</v>
@@ -6580,7 +6677,7 @@
         <v>69</v>
       </c>
       <c r="K104" t="s">
-        <v>751</v>
+        <v>773</v>
       </c>
       <c r="L104" s="1" t="s">
         <v>148</v>
@@ -6698,7 +6795,7 @@
         <v>68</v>
       </c>
       <c r="K108" t="s">
-        <v>752</v>
+        <v>774</v>
       </c>
       <c r="L108" s="1" t="s">
         <v>154</v>
@@ -6733,7 +6830,7 @@
         <v>68</v>
       </c>
       <c r="K109" t="s">
-        <v>752</v>
+        <v>774</v>
       </c>
       <c r="L109" s="1" t="s">
         <v>154</v>
@@ -6793,7 +6890,7 @@
         <v>69</v>
       </c>
       <c r="K111" t="s">
-        <v>752</v>
+        <v>775</v>
       </c>
       <c r="L111" s="1" t="s">
         <v>159</v>
@@ -6827,7 +6924,7 @@
         <v>69</v>
       </c>
       <c r="K112" t="s">
-        <v>752</v>
+        <v>775</v>
       </c>
       <c r="L112" s="1" t="s">
         <v>666</v>
@@ -7007,7 +7104,7 @@
         <v>69</v>
       </c>
       <c r="K117" t="s">
-        <v>751</v>
+        <v>776</v>
       </c>
       <c r="L117" s="1" t="s">
         <v>169</v>
@@ -7045,7 +7142,7 @@
         <v>69</v>
       </c>
       <c r="K118" t="s">
-        <v>751</v>
+        <v>776</v>
       </c>
       <c r="L118" s="1" t="s">
         <v>168</v>
@@ -7080,7 +7177,7 @@
         <v>69</v>
       </c>
       <c r="K119" t="s">
-        <v>751</v>
+        <v>776</v>
       </c>
       <c r="L119" s="1" t="s">
         <v>170</v>
@@ -7115,7 +7212,7 @@
         <v>69</v>
       </c>
       <c r="K120" t="s">
-        <v>751</v>
+        <v>777</v>
       </c>
       <c r="L120" s="1" t="s">
         <v>174</v>
@@ -7153,7 +7250,7 @@
         <v>69</v>
       </c>
       <c r="K121" t="s">
-        <v>751</v>
+        <v>777</v>
       </c>
       <c r="L121" s="1" t="s">
         <v>175</v>
@@ -7191,7 +7288,7 @@
         <v>69</v>
       </c>
       <c r="K122" t="s">
-        <v>751</v>
+        <v>777</v>
       </c>
       <c r="L122" s="1" t="s">
         <v>176</v>
@@ -7508,7 +7605,7 @@
         <v>69</v>
       </c>
       <c r="K131" t="s">
-        <v>752</v>
+        <v>778</v>
       </c>
       <c r="L131" s="1" t="s">
         <v>189</v>
@@ -7542,7 +7639,7 @@
         <v>69</v>
       </c>
       <c r="K132" t="s">
-        <v>752</v>
+        <v>778</v>
       </c>
       <c r="L132" s="1" t="s">
         <v>188</v>
@@ -7580,7 +7677,7 @@
         <v>69</v>
       </c>
       <c r="K133" t="s">
-        <v>751</v>
+        <v>779</v>
       </c>
       <c r="L133" s="1" t="s">
         <v>196</v>
@@ -7615,7 +7712,7 @@
         <v>69</v>
       </c>
       <c r="K134" t="s">
-        <v>751</v>
+        <v>779</v>
       </c>
       <c r="L134" s="1" t="s">
         <v>196</v>
@@ -7653,7 +7750,7 @@
         <v>69</v>
       </c>
       <c r="K135" t="s">
-        <v>751</v>
+        <v>779</v>
       </c>
       <c r="L135" s="1" t="s">
         <v>686</v>
@@ -7691,7 +7788,7 @@
         <v>69</v>
       </c>
       <c r="K136" t="s">
-        <v>751</v>
+        <v>779</v>
       </c>
       <c r="L136" s="1" t="s">
         <v>195</v>
@@ -7729,7 +7826,7 @@
         <v>69</v>
       </c>
       <c r="K137" t="s">
-        <v>751</v>
+        <v>779</v>
       </c>
       <c r="L137" s="1" t="s">
         <v>694</v>
@@ -7794,7 +7891,7 @@
         <v>68</v>
       </c>
       <c r="K139" t="s">
-        <v>751</v>
+        <v>780</v>
       </c>
       <c r="L139" s="1" t="s">
         <v>202</v>
@@ -7828,7 +7925,7 @@
         <v>68</v>
       </c>
       <c r="K140" t="s">
-        <v>751</v>
+        <v>780</v>
       </c>
       <c r="L140" s="1" t="s">
         <v>202</v>
@@ -7862,7 +7959,7 @@
         <v>68</v>
       </c>
       <c r="K141" t="s">
-        <v>751</v>
+        <v>780</v>
       </c>
       <c r="L141" s="1" t="s">
         <v>698</v>
@@ -7934,7 +8031,7 @@
         <v>69</v>
       </c>
       <c r="K143" t="s">
-        <v>751</v>
+        <v>781</v>
       </c>
       <c r="L143" s="1" t="s">
         <v>600</v>
@@ -7968,7 +8065,7 @@
         <v>69</v>
       </c>
       <c r="K144" t="s">
-        <v>751</v>
+        <v>781</v>
       </c>
       <c r="L144" s="1" t="s">
         <v>705</v>
@@ -8006,7 +8103,7 @@
         <v>69</v>
       </c>
       <c r="K145" t="s">
-        <v>751</v>
+        <v>781</v>
       </c>
       <c r="L145" s="1" t="s">
         <v>208</v>
@@ -8044,7 +8141,7 @@
         <v>69</v>
       </c>
       <c r="K146" t="s">
-        <v>751</v>
+        <v>781</v>
       </c>
       <c r="L146" s="1" t="s">
         <v>209</v>
@@ -8079,7 +8176,7 @@
         <v>69</v>
       </c>
       <c r="K147" t="s">
-        <v>751</v>
+        <v>782</v>
       </c>
       <c r="L147" s="1" t="s">
         <v>217</v>
@@ -8117,7 +8214,7 @@
         <v>69</v>
       </c>
       <c r="K148" t="s">
-        <v>751</v>
+        <v>782</v>
       </c>
       <c r="L148" s="1" t="s">
         <v>217</v>
@@ -8152,7 +8249,7 @@
         <v>69</v>
       </c>
       <c r="K149" t="s">
-        <v>751</v>
+        <v>782</v>
       </c>
       <c r="L149" s="1" t="s">
         <v>217</v>
@@ -8187,7 +8284,7 @@
         <v>69</v>
       </c>
       <c r="K150" t="s">
-        <v>751</v>
+        <v>782</v>
       </c>
       <c r="L150" s="1" t="s">
         <v>217</v>
@@ -8222,7 +8319,7 @@
         <v>69</v>
       </c>
       <c r="K151" t="s">
-        <v>751</v>
+        <v>782</v>
       </c>
       <c r="L151" s="1" t="s">
         <v>217</v>
@@ -8260,7 +8357,7 @@
         <v>69</v>
       </c>
       <c r="K152" t="s">
-        <v>751</v>
+        <v>782</v>
       </c>
       <c r="L152" s="1" t="s">
         <v>218</v>
@@ -8298,7 +8395,7 @@
         <v>69</v>
       </c>
       <c r="K153" t="s">
-        <v>751</v>
+        <v>782</v>
       </c>
       <c r="L153" s="1" t="s">
         <v>217</v>
@@ -8333,7 +8430,7 @@
         <v>163</v>
       </c>
       <c r="K154" t="s">
-        <v>752</v>
+        <v>783</v>
       </c>
       <c r="L154" s="1" t="s">
         <v>221</v>
@@ -8362,7 +8459,7 @@
       </c>
       <c r="I155" s="16"/>
       <c r="K155" t="s">
-        <v>752</v>
+        <v>783</v>
       </c>
       <c r="L155" s="1" t="s">
         <v>221</v>
@@ -8400,7 +8497,7 @@
         <v>69</v>
       </c>
       <c r="K156" t="s">
-        <v>751</v>
+        <v>784</v>
       </c>
       <c r="L156" s="1" t="s">
         <v>229</v>
@@ -8438,7 +8535,7 @@
         <v>69</v>
       </c>
       <c r="K157" t="s">
-        <v>751</v>
+        <v>784</v>
       </c>
       <c r="L157" s="1" t="s">
         <v>715</v>
@@ -8476,7 +8573,7 @@
         <v>69</v>
       </c>
       <c r="K158" t="s">
-        <v>751</v>
+        <v>784</v>
       </c>
       <c r="L158" s="1" t="s">
         <v>229</v>
@@ -8514,7 +8611,7 @@
         <v>69</v>
       </c>
       <c r="K159" t="s">
-        <v>751</v>
+        <v>784</v>
       </c>
       <c r="L159" s="1" t="s">
         <v>230</v>
@@ -8552,7 +8649,7 @@
         <v>69</v>
       </c>
       <c r="K160" t="s">
-        <v>751</v>
+        <v>784</v>
       </c>
       <c r="L160" s="1" t="s">
         <v>229</v>
@@ -8590,7 +8687,7 @@
         <v>69</v>
       </c>
       <c r="K161" t="s">
-        <v>751</v>
+        <v>784</v>
       </c>
       <c r="L161" s="1" t="s">
         <v>229</v>
@@ -8628,7 +8725,7 @@
         <v>69</v>
       </c>
       <c r="K162" t="s">
-        <v>751</v>
+        <v>784</v>
       </c>
       <c r="L162" s="1" t="s">
         <v>727</v>
@@ -8663,7 +8760,7 @@
         <v>68</v>
       </c>
       <c r="K163" t="s">
-        <v>751</v>
+        <v>785</v>
       </c>
       <c r="L163" s="1" t="s">
         <v>710</v>
@@ -8698,10 +8795,10 @@
         <v>68</v>
       </c>
       <c r="K164" t="s">
+        <v>785</v>
+      </c>
+      <c r="L164" s="1" t="s">
         <v>751</v>
-      </c>
-      <c r="L164" s="1" t="s">
-        <v>753</v>
       </c>
     </row>
     <row r="165" spans="1:17" x14ac:dyDescent="0.25">
@@ -8730,10 +8827,10 @@
         <v>19197039</v>
       </c>
       <c r="K165" t="s">
-        <v>751</v>
+        <v>785</v>
       </c>
       <c r="L165" s="1" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="166" spans="1:17" x14ac:dyDescent="0.25">
@@ -8795,7 +8892,7 @@
         <v>69</v>
       </c>
       <c r="K167" t="s">
-        <v>751</v>
+        <v>786</v>
       </c>
       <c r="L167" s="1" t="s">
         <v>239</v>
@@ -8823,7 +8920,7 @@
       <c r="G168" s="12"/>
       <c r="H168" s="12"/>
       <c r="K168" t="s">
-        <v>751</v>
+        <v>786</v>
       </c>
       <c r="L168" s="1" t="s">
         <v>239</v>
@@ -8858,10 +8955,10 @@
         <v>69</v>
       </c>
       <c r="K169" t="s">
-        <v>751</v>
+        <v>786</v>
       </c>
       <c r="L169" s="1" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="170" spans="1:17" x14ac:dyDescent="0.25">
@@ -8961,7 +9058,7 @@
         <v>247</v>
       </c>
       <c r="Q172" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="173" spans="1:17" x14ac:dyDescent="0.25">
@@ -9030,7 +9127,7 @@
         <v>240</v>
       </c>
       <c r="K174" t="s">
-        <v>752</v>
+        <v>787</v>
       </c>
       <c r="L174" s="1" t="s">
         <v>249</v>
@@ -9068,7 +9165,7 @@
         <v>240</v>
       </c>
       <c r="K175" t="s">
-        <v>752</v>
+        <v>787</v>
       </c>
       <c r="L175" s="1" t="s">
         <v>745</v>
@@ -13105,6 +13202,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100AAE124C5A4D68743B28650FDE78EA4DD" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c2292b4748cb80aab9ce8557334a3a9a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="6db678f3-3207-45a7-bb76-4f6b54a03069" xmlns:ns4="f8cc16dc-7588-4949-9133-852c9419a450" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="532fccbb9916789b95418be1abc4b624" ns3:_="" ns4:_="">
     <xsd:import namespace="6db678f3-3207-45a7-bb76-4f6b54a03069"/>
@@ -13275,12 +13378,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A24C43BF-D402-4F87-99F4-C9E3E4401A98}">
   <ds:schemaRefs>
@@ -13290,6 +13387,23 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8A9401F-48F2-48A8-9905-53282ECD946A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="f8cc16dc-7588-4949-9133-852c9419a450"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="6db678f3-3207-45a7-bb76-4f6b54a03069"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E07B35C2-85CE-44CD-8828-D423D51F09D8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -13308,23 +13422,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8A9401F-48F2-48A8-9905-53282ECD946A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="f8cc16dc-7588-4949-9133-852c9419a450"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="6db678f3-3207-45a7-bb76-4f6b54a03069"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{377e3d22-4ea1-422d-b0ad-8fcc89406b9e}" enabled="0" method="" siteId="{377e3d22-4ea1-422d-b0ad-8fcc89406b9e}" removed="1"/>
